--- a/experiment/results/plantilla.xlsx
+++ b/experiment/results/plantilla.xlsx
@@ -26,6 +26,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Nombre Problema</t>
+  </si>
+  <si>
+    <t>Alpha=0</t>
+  </si>
+  <si>
+    <t>Punto original (x_1,x_2,..., x_n,y_1,y_2,...,y_m)</t>
+  </si>
+  <si>
+    <t>Valor Objetivo Nivel Superior</t>
+  </si>
+  <si>
+    <t>Punto obtenido ahora julia (x_1,x_2,..., x_n,y_1,y_2,...,y_m)</t>
+  </si>
+  <si>
+    <t>Valor Objetivo Nivel Superior Obtenido por Julia</t>
+  </si>
+  <si>
+    <t>Optimizador</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
@@ -34,14 +60,7 @@
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,148 +516,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -963,14 +982,47 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A10" sqref="$A3:$XFD3 $A4:$XFD4 $A5:$XFD5 $A6:$XFD6 $A7:$XFD7 $A8:$XFD8 $A9:$XFD9 $A10:$XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="20.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="28.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="44.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="27.4545454545455" customWidth="1"/>
+    <col min="5" max="5" width="55.6363636363636" customWidth="1"/>
+    <col min="6" max="6" width="45.0909090909091" customWidth="1"/>
+    <col min="7" max="7" width="12.4545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
